--- a/Win32/Binaries/Table/lotteryactivity.xlsx
+++ b/Win32/Binaries/Table/lotteryactivity.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>第3周活动</t>
+  </si>
+  <si>
+    <t>第4周活动</t>
   </si>
 </sst>
 </file>
@@ -425,14 +428,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F5"/>
+      <selection activeCell="C3" sqref="C3:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="2" max="2" width="13.875" customWidth="1"/>
     <col min="3" max="4" width="11.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.25" bestFit="1" customWidth="1"/>
@@ -480,13 +484,13 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>1462068600</v>
+        <v>1488279905</v>
       </c>
       <c r="D3">
-        <v>1461827397</v>
+        <v>1488366305</v>
       </c>
       <c r="E3" s="1">
-        <v>6001</v>
+        <v>16001</v>
       </c>
       <c r="F3" s="2"/>
     </row>
@@ -498,13 +502,13 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>1461827397</v>
+        <v>1488366305</v>
       </c>
       <c r="D4">
-        <v>1461827997</v>
+        <v>1488452705</v>
       </c>
       <c r="E4" s="1">
-        <v>6002</v>
+        <v>16002</v>
       </c>
       <c r="F4" s="2"/>
     </row>
@@ -516,18 +520,32 @@
         <v>13</v>
       </c>
       <c r="C5">
-        <v>1461827997</v>
+        <v>1488452705</v>
       </c>
       <c r="D5">
-        <v>1461828597</v>
+        <v>1488539105</v>
       </c>
       <c r="E5" s="1">
-        <v>6003</v>
+        <v>16003</v>
       </c>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="E6" s="1"/>
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>1488539105</v>
+      </c>
+      <c r="D6">
+        <v>1488625505</v>
+      </c>
+      <c r="E6" s="1">
+        <v>16004</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E7" s="1"/>
@@ -546,6 +564,9 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E13" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -555,10 +576,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D5"/>
+      <selection activeCell="H6" sqref="H6:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -566,11 +587,11 @@
     <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="11.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -587,7 +608,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -604,7 +625,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -616,21 +637,21 @@
       </c>
       <c r="D3" s="4">
         <f ca="1">INT(G3)</f>
-        <v>1461827410</v>
+        <v>1488280096</v>
       </c>
       <c r="E3" s="1">
-        <v>6001</v>
+        <v>16001</v>
       </c>
       <c r="F3" s="2">
         <f ca="1">NOW()+1/24/60*20</f>
-        <v>42488.632068634259</v>
+        <v>42794.79741215278</v>
       </c>
       <c r="G3" s="3">
         <f ca="1">(F3-19-70*365)*86400-8*3600</f>
-        <v>1461827410.73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+        <v>1488280096.4100003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
@@ -639,20 +660,20 @@
       </c>
       <c r="C4" s="4">
         <f ca="1">D3</f>
-        <v>1461827410</v>
+        <v>1488280096</v>
       </c>
       <c r="D4">
         <f ca="1">INT(C4+3600/6)</f>
-        <v>1461828010</v>
+        <v>1488280696</v>
       </c>
       <c r="E4" s="1">
-        <v>6002</v>
+        <v>16002</v>
       </c>
       <c r="G4">
         <v>1461569235</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
@@ -661,40 +682,196 @@
       </c>
       <c r="C5">
         <f ca="1">D4</f>
-        <v>1461828010</v>
+        <v>1488280696</v>
       </c>
       <c r="D5">
         <f ca="1">INT(C5+3600/6)</f>
-        <v>1461828610</v>
+        <v>1488281296</v>
       </c>
       <c r="E5" s="1">
-        <v>6003</v>
+        <v>16003</v>
       </c>
       <c r="F5" s="2">
         <f ca="1">(D5+8*3600)/86400+70*365+19</f>
-        <v>42488.645949074074</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+        <v>42794.811296296291</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F6" s="2">
+        <v>42794.795201967594</v>
+      </c>
+      <c r="G6" s="2">
+        <v>42795.795201967594</v>
+      </c>
+      <c r="H6" s="3">
+        <f>INT((F6-19-70*365)*86400-8*3600)</f>
+        <v>1488279905</v>
+      </c>
+      <c r="I6" s="3">
+        <f>INT((G6-19-70*365)*86400-8*3600)</f>
+        <v>1488366305</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F7" s="2">
+        <v>42795.795201967594</v>
+      </c>
+      <c r="G7" s="2">
+        <v>42796.795201967594</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" ref="H7:H15" si="0">INT((F7-19-70*365)*86400-8*3600)</f>
+        <v>1488366305</v>
+      </c>
+      <c r="I7" s="3">
+        <f t="shared" ref="I7:I15" si="1">INT((G7-19-70*365)*86400-8*3600)</f>
+        <v>1488452705</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F8" s="2">
+        <v>42796.795201967594</v>
+      </c>
+      <c r="G8" s="2">
+        <v>42797.795201967594</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" si="0"/>
+        <v>1488452705</v>
+      </c>
+      <c r="I8" s="3">
+        <f t="shared" si="1"/>
+        <v>1488539105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F9" s="2">
+        <v>42797.795201967594</v>
+      </c>
+      <c r="G9" s="2">
+        <v>42798.795201967594</v>
+      </c>
+      <c r="H9" s="3">
+        <f t="shared" si="0"/>
+        <v>1488539105</v>
+      </c>
+      <c r="I9" s="3">
+        <f t="shared" si="1"/>
+        <v>1488625505</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F10" s="2">
+        <v>42798.795201967594</v>
+      </c>
+      <c r="G10" s="2">
+        <v>42799.795201967594</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" si="0"/>
+        <v>1488625505</v>
+      </c>
+      <c r="I10" s="3">
+        <f t="shared" si="1"/>
+        <v>1488711905</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F11" s="2">
+        <v>42799.795201967594</v>
+      </c>
+      <c r="G11" s="2">
+        <v>42800.795201967594</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" si="0"/>
+        <v>1488711905</v>
+      </c>
+      <c r="I11" s="3">
+        <f t="shared" si="1"/>
+        <v>1488798305</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="E12" s="1"/>
+      <c r="F12" s="2">
+        <v>42800.795201967594</v>
+      </c>
+      <c r="G12" s="2">
+        <v>42801.795201967594</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="0"/>
+        <v>1488798305</v>
+      </c>
+      <c r="I12" s="3">
+        <f t="shared" si="1"/>
+        <v>1488884705</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="F13" s="2">
+        <v>42801.795201967594</v>
+      </c>
+      <c r="G13" s="2">
+        <v>42802.795201967594</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="0"/>
+        <v>1488884705</v>
+      </c>
+      <c r="I13" s="3">
+        <f t="shared" si="1"/>
+        <v>1488971105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="F14" s="2">
+        <v>42802.795201967594</v>
+      </c>
+      <c r="G14" s="2">
+        <v>42803.795201967594</v>
+      </c>
+      <c r="H14" s="3">
+        <f t="shared" si="0"/>
+        <v>1488971105</v>
+      </c>
+      <c r="I14" s="3">
+        <f t="shared" si="1"/>
+        <v>1489057505</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="F15" s="2">
+        <v>42803.795201967594</v>
+      </c>
+      <c r="G15" s="2">
+        <v>42814.999305555553</v>
+      </c>
+      <c r="H15" s="3">
+        <f t="shared" si="0"/>
+        <v>1489057505</v>
+      </c>
+      <c r="I15" s="3">
+        <f t="shared" si="1"/>
+        <v>1490025540</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="6:7" x14ac:dyDescent="0.15">
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
